--- a/medicine/Enfance/Sophie_Dieuaide/Sophie_Dieuaide.xlsx
+++ b/medicine/Enfance/Sophie_Dieuaide/Sophie_Dieuaide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sophie Dieuaide, née à Angers le 11 septembre 1962, est un auteur de romans policiers pour enfants.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sophie Dieuaide est née le 11 septembre 1962 à Angers en France elle  a fait des études de dessin et de peinture aux beaux-arts, puis a travaillé avec des architectes.
 C'est en 1996 qu'elle a commencé à écrire. Depuis, elle a publié aux éditions Casterman, Bayard, Pocket, Hachette, une trentaine de romans humoristiques, et reçu de nombreux prix littéraires.
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-série Sabine-Juliette.com / Signé Juliette/Sabine et Juliette conseille
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>série Sabine-Juliette.com / Signé Juliette/Sabine et Juliette conseille
 Deux noms pour une même série, publiée pour la première fois au début des années 2000 et éditée chez Hachette, d'abord dans la collection Bibliothèque verte puis dans la collection "Planète Filles", et enfin dans la collection Hachette Romans. La série a également paru aux éditions Le Livre de poche.
 Aux éditions Hachette, collection Bibliothèque verte, sous le titre Sabine-Juliette.com:
 Demandez conseil !
@@ -572,9 +591,43 @@
 S.O.S. Collège en danger !
 Touchez pas au trésor !
 Juste un petit coup d'œil"
-C'est sombre une forêt la nuit ...."
-Romans Hors série
-Plus menteur que moi, y'a pas !
+C'est sombre une forêt la nuit ...."</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sophie_Dieuaide</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Dieuaide</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans Hors série</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Plus menteur que moi, y'a pas !
 Le Premier Noël de Mia
 Prince Jojo 1er
 Grrrrr !
@@ -586,9 +639,43 @@
 Minou Jackson, chat de père en fils
 Pensées de Manon D. sur moi-même
 La révolte des filles : un espion raconte, Casterman, 2017
-Esther et Mandragore.
-Nouvelles
-Publiées aux éditions Autrement :
+Esther et Mandragore.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sophie_Dieuaide</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Dieuaide</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Publiées aux éditions Autrement :
 On a trouvé un chien
 Ma mère se remarie
 Pourquoi je vais à l'école ?
@@ -596,18 +683,86 @@
 Filles = garçons ? (2001)
 C'est de famille !
 Pensées de Manon D. sur moi-même et sur quelques autres sujets
-La Vie rêvée ou presque de Manon D.
-Bandes dessinées
-Série Les Papooses , illustrée par Catel (Casterman) :
+La Vie rêvée ou presque de Manon D.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sophie_Dieuaide</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Dieuaide</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Série Les Papooses , illustrée par Catel (Casterman) :
 Un très très grand sorcier, 2003
 À la poursuite du chien géant, 2003
 La Colère de l'Oiseau-Tonnerre, 2003
 Un amour de sqwaw, 2004
 Des Tchipiwas dans les rapides, 2004
 Du rififi dans la prairie, 2005
-Un froid de loup, 2005
-Collectif d'auteurs
-Filles = garçons : l'égalité des sexes, texte de Béatrice Vincent, avec une histoire de Sophie Dieuaide, illustrations par Bertrand Dubois, Autrement, 2001  (ISBN 2-7467-0128-6)
+Un froid de loup, 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sophie_Dieuaide</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Dieuaide</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Collectif d'auteurs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Filles = garçons : l'égalité des sexes, texte de Béatrice Vincent, avec une histoire de Sophie Dieuaide, illustrations par Bertrand Dubois, Autrement, 2001  (ISBN 2-7467-0128-6)
 Pourquoi on vote ? : la démocratie, la République, les partis politiques, texte d'Édith de Cornulier, avec une histoire de Sophie Dieuaide, illustrations de Candice Hayat, Autrement, 2007  (ISBN 978-2-7467-0935-5)</t>
         </is>
       </c>
